--- a/Assignment Model/input/test_input_2.xlsx
+++ b/Assignment Model/input/test_input_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skema-my.sharepoint.com/personal/ade_fajemisin_skema_edu/Documents/Research/URBANE project/Bologna/Data-driven model for Bologna/Assignment Models/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skema-my.sharepoint.com/personal/ade_fajemisin_skema_edu/Documents/Research/URBANE project/Bologna/Data-driven model for Bologna/Assignment Model/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="203" documentId="13_ncr:1_{8C9C893E-EFC7-4F3A-89F8-FDDBB12C059F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73A98881-121F-4223-A7F9-A389883C2967}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="13_ncr:1_{8C9C893E-EFC7-4F3A-89F8-FDDBB12C059F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86C862E8-ADE5-49A5-AC6D-2F9C09045ED5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="problem_instance_info" sheetId="1" r:id="rId1"/>
@@ -495,18 +495,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.54296875" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +532,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -558,7 +558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -584,7 +584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -610,7 +610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -636,7 +636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -662,7 +662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -685,10 +685,10 @@
         <v>23</v>
       </c>
       <c r="H7">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -711,10 +711,10 @@
         <v>23</v>
       </c>
       <c r="H8">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -737,10 +737,10 @@
         <v>23</v>
       </c>
       <c r="H9">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -763,10 +763,10 @@
         <v>23</v>
       </c>
       <c r="H10">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -789,10 +789,10 @@
         <v>23</v>
       </c>
       <c r="H11">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -815,10 +815,10 @@
         <v>23</v>
       </c>
       <c r="H12">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -844,7 +844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -870,7 +870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -896,7 +896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -922,7 +922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -948,7 +948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -974,7 +974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -4342,12 +4342,12 @@
       <selection activeCell="C18" sqref="C18:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4447,14 +4447,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -4472,15 +4472,15 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>0.87595758099999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>2.9286189999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>2.0326925999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -4544,18 +4544,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC200037-E9B3-4125-A261-1C63EDE46CA4}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
